--- a/torch_jax_accuracy/comparison/codebleu_comparison_with_avg.xlsx
+++ b/torch_jax_accuracy/comparison/codebleu_comparison_with_avg.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.3707865168539326</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1620957345751957</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4042606150511812</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,6 +679,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.1840193704600484</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2144031568253373</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1828629629984173</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,6 +811,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.3684210526315789</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09320581341875558</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3086827965251996</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,6 +943,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.3693379790940767</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2236486496704844</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3698587208837247</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1011,6 +1075,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.308641975308642</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1989310456971083</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3382961223613895</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,6 +1207,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.3010471204188482</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1880158066588477</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.258474275675533</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,7 +1271,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2405432951129478</v>
+        <v>0.2417932951129478</v>
       </c>
       <c r="D2" t="n">
         <v>0.2506783446634494</v>
@@ -1239,10 +1335,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.29</v>
+        <v>0.295</v>
       </c>
       <c r="D6" t="n">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2417932951129478</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2506783446634494</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1359,6 +1471,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.2971887550200803</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1727447112994633</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2116214648766511</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1407,10 +1535,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1323909895017444</v>
+        <v>0.1331114505968453</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1607519950338121</v>
+        <v>0.1603917644862616</v>
       </c>
     </row>
     <row r="3">
@@ -1471,10 +1599,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1138328530259366</v>
+        <v>0.1167146974063401</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1368876080691643</v>
+        <v>0.1354466858789625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1331114505968452</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1603917644862617</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1591,6 +1735,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.3068493150684932</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1262980977121033</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3185236814042639</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1707,6 +1867,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.3015267175572519</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2789303335543866</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2669076816060335</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1755,7 +1931,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1938726370874481</v>
+        <v>0.1920069654456571</v>
       </c>
       <c r="D2" t="n">
         <v>0.3251593077735299</v>
@@ -1819,10 +1995,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2126865671641791</v>
+        <v>0.2052238805970149</v>
       </c>
       <c r="D6" t="n">
         <v>0.2798507462686567</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1920069654456571</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3251593077735299</v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1874,7 +2066,7 @@
         <v>0.1486633643704877</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1936787174550392</v>
+        <v>0.1940872141870654</v>
       </c>
     </row>
     <row r="3">
@@ -1938,7 +2130,23 @@
         <v>0.1045751633986928</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1813725490196078</v>
+        <v>0.1830065359477124</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1486633643704877</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1940872141870654</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +2160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,6 +2263,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.3058252427184466</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1823631791788002</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2267281376241792</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,6 +2395,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.355</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1184805227258153</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3008474257893564</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2287,6 +2527,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.5433070866141733</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2873061721895966</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3961970908879898</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2403,6 +2659,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.2992424242424243</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1317003555727448</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2324790343420346</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2519,6 +2791,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.3834586466165413</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.210757591537644</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3736778745130226</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2635,6 +2923,22 @@
       </c>
       <c r="D6" t="n">
         <v>0.3096774193548387</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2889246915968517</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3305532694088543</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +2952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2753,6 +3057,22 @@
         <v>0.3796296296296297</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1903266240398412</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3136405781189627</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
